--- a/Modelos/Tentativa 1/Tentativa 1.xlsx
+++ b/Modelos/Tentativa 1/Tentativa 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C462B7-2F5D-4112-8D8C-AF47A566EDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F995B5-00AF-4E95-8DA9-1EA80E2E02A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1876,7 +1876,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -2224,8 +2224,8 @@
   <sheetPr codeName="Folha12"/>
   <dimension ref="S1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="F49" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2627,10 +2627,10 @@
   <dimension ref="A1:AT45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8830,13 +8830,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF88B52-A38E-4C06-9A46-1DEC91FEA24E}">
   <sheetPr codeName="Folha5"/>
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AV46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL2" sqref="AL1:AL1048576"/>
+      <selection pane="bottomRight" activeCell="AK38" sqref="AK38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8854,7 +8854,7 @@
     <col min="46" max="46" width="3.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C1" s="67" t="s">
         <v>25</v>
       </c>
@@ -8901,7 +8901,7 @@
       <c r="AR1" s="67"/>
       <c r="AS1" s="67"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C2" s="24">
         <v>0</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>24</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" s="66"/>
       <c r="B4" s="25">
         <v>1</v>
@@ -9312,7 +9312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" s="66"/>
       <c r="B5" s="25">
         <v>2</v>
@@ -9450,8 +9450,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AV5">
+        <f>C3+D4+E5+G7+I9+L12+M13+O15+P16+Q17+R18+T20+W23+X24+AA27+AB28+AD30+AC29+AG33+AH34+AI35+AJ36+AK37+AL38+AM39+AO41+AS45</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="66"/>
       <c r="B6" s="25">
         <v>3</v>
@@ -9590,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" s="66"/>
       <c r="B7" s="25">
         <v>4</v>
@@ -9729,7 +9733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="66"/>
       <c r="B8" s="25">
         <v>5</v>
@@ -9868,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="66"/>
       <c r="B9" s="25">
         <v>6</v>
@@ -10007,7 +10011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="66"/>
       <c r="B10" s="25">
         <v>7</v>
@@ -10146,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="66"/>
       <c r="B11" s="25">
         <v>8</v>
@@ -10285,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" s="66"/>
       <c r="B12" s="25">
         <v>9</v>
@@ -10424,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="66"/>
       <c r="B13" s="25">
         <v>10</v>
@@ -10563,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="66"/>
       <c r="B14" s="25">
         <v>11</v>
@@ -10702,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" s="66"/>
       <c r="B15" s="25">
         <v>12</v>
@@ -10841,7 +10845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" s="66"/>
       <c r="B16" s="25">
         <v>13</v>
@@ -15216,9 +15220,9 @@
   <sheetPr codeName="Folha6"/>
   <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14:AE15"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15447,8 +15451,8 @@
         <v>36</v>
       </c>
       <c r="AL2" s="23">
-        <f>C2+C9+C13+C16+C19+C23+C26+K2+K7+K10+K13+K16+K19+K24+S2+S5+S11+S17+S22+S26+S30+AA2+AA9+AA14+AA17+AA21+AA24</f>
-        <v>557</v>
+        <f>B2+B9+B13+B16+B19+B23+B26+J2+J7+J10+J13+J16+J19+J24+R2+R5+R11++R17+R22+R26+R30+Z2+Z9+Z14+Z17+Z21+Z24</f>
+        <v>485</v>
       </c>
       <c r="AM2" s="33" t="s">
         <v>53</v>
@@ -15458,7 +15462,7 @@
       </c>
       <c r="AO2" s="49">
         <f>AL2/AN2</f>
-        <v>0.86089644513137553</v>
+        <v>0.74961360123647602</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -15567,7 +15571,7 @@
         <v>36</v>
       </c>
       <c r="AL3" s="23">
-        <f>COUNTIF($D$2:$D$37,AM3)+COUNTIF($L$2:$L$39,AM3)+COUNTIF($T$2:$T$39,AM3)+COUNTIF($AB$2:$AB$34,AM3)</f>
+        <f t="shared" ref="AL3:AL9" si="7">COUNTIF($D$2:$D$37,AM3)+COUNTIF($L$2:$L$39,AM3)+COUNTIF($T$2:$T$39,AM3)+COUNTIF($AB$2:$AB$34,AM3)</f>
         <v>9</v>
       </c>
       <c r="AM3" s="33" t="s">
@@ -15587,7 +15591,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="33" t="str">
-        <f t="shared" ref="D4:D7" si="7">COUNTIF(E4,$E$2)+COUNTIF(F4,$F$2)+COUNTIF(G4,$G$2)&amp;" ("&amp; IF(E4=$E$2,"Estrutura, ","") &amp; IF(F4=$F$2,"Ano, ","") &amp;IF(G4=$G$2,"Material","") &amp; IF(OR(E4=$E$2,F4=$F$2,G4=$G$2),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="D4:D7" si="8">COUNTIF(E4,$E$2)+COUNTIF(F4,$F$2)+COUNTIF(G4,$G$2)&amp;" ("&amp; IF(E4=$E$2,"Estrutura, ","") &amp; IF(F4=$F$2,"Ano, ","") &amp;IF(G4=$G$2,"Material","") &amp; IF(OR(E4=$E$2,F4=$F$2,G4=$G$2),"","Nenhuma") &amp;")"</f>
         <v>2 (Ano, Material)</v>
       </c>
       <c r="E4" s="39" t="str">
@@ -15667,14 +15671,14 @@
         <v>38</v>
       </c>
       <c r="AL4" s="23">
-        <f>COUNTIF($D$2:$D$37,AM4)+COUNTIF($L$2:$L$39,AM4)+COUNTIF($T$2:$T$39,AM4)+COUNTIF($AB$2:$AB$34,AM4)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AM4" s="33" t="s">
         <v>49</v>
       </c>
       <c r="AN4" s="50">
-        <f t="shared" ref="AN4:AN9" si="8">AL4/$AL$10</f>
+        <f t="shared" ref="AN4:AN9" si="9">AL4/$AL$10</f>
         <v>5.3571428571428568E-2</v>
       </c>
     </row>
@@ -15687,7 +15691,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1 (Ano, )</v>
       </c>
       <c r="E5" s="39" t="str">
@@ -15783,14 +15787,14 @@
         <v>36</v>
       </c>
       <c r="AL5" s="23">
-        <f>COUNTIF($D$2:$D$37,AM5)+COUNTIF($L$2:$L$39,AM5)+COUNTIF($T$2:$T$39,AM5)+COUNTIF($AB$2:$AB$34,AM5)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AM5" s="33" t="s">
         <v>50</v>
       </c>
       <c r="AN5" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.9285714285714288E-2</v>
       </c>
     </row>
@@ -15803,7 +15807,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 (Nenhuma)</v>
       </c>
       <c r="E6" s="39" t="str">
@@ -15883,15 +15887,15 @@
         <v>38</v>
       </c>
       <c r="AL6" s="23">
-        <f>COUNTIF($D$2:$D$37,AM6)+COUNTIF($L$2:$L$39,AM6)+COUNTIF($T$2:$T$39,AM6)+COUNTIF($AB$2:$AB$34,AM6)</f>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="AM6" s="33" t="s">
         <v>29</v>
       </c>
       <c r="AN6" s="50">
-        <f t="shared" si="8"/>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="9"/>
+        <v>0.30357142857142855</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -15903,7 +15907,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 (Nenhuma)</v>
       </c>
       <c r="E7" s="39" t="str">
@@ -15948,7 +15952,7 @@
         <v>27</v>
       </c>
       <c r="T7" s="33" t="str">
-        <f t="shared" ref="T7:T9" si="9">COUNTIF(U7,$U$5)+COUNTIF(V7,$V$5)+COUNTIF(W7,$W$5)&amp;" ("&amp; IF(U7=$U$5,"Estrutura, ","") &amp; IF(V7=$V$5,"Ano, ","") &amp;IF(W7=$W$5,"Material","") &amp; IF(OR(U7=$U$5,V7=$V$5,W7=$W$5),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="T7:T9" si="10">COUNTIF(U7,$U$5)+COUNTIF(V7,$V$5)+COUNTIF(W7,$W$5)&amp;" ("&amp; IF(U7=$U$5,"Estrutura, ","") &amp; IF(V7=$V$5,"Ano, ","") &amp;IF(W7=$W$5,"Material","") &amp; IF(OR(U7=$U$5,V7=$V$5,W7=$W$5),"","Nenhuma") &amp;")"</f>
         <v>2 (Estrutura, Material)</v>
       </c>
       <c r="U7" s="39" t="str">
@@ -15999,15 +16003,15 @@
         <v>40</v>
       </c>
       <c r="AL7" s="23">
-        <f>COUNTIF($D$2:$D$37,AM7)+COUNTIF($L$2:$L$39,AM7)+COUNTIF($T$2:$T$39,AM7)+COUNTIF($AB$2:$AB$34,AM7)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AM7" s="33" t="s">
         <v>51</v>
       </c>
       <c r="AN7" s="50">
-        <f t="shared" si="8"/>
-        <v>1.7857142857142856E-2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -16048,7 +16052,7 @@
         <v>20</v>
       </c>
       <c r="T8" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1 (Material)</v>
       </c>
       <c r="U8" s="39" t="str">
@@ -16079,14 +16083,14 @@
         <v>38</v>
       </c>
       <c r="AL8" s="23">
-        <f>COUNTIF($D$2:$D$37,AM8)+COUNTIF($L$2:$L$39,AM8)+COUNTIF($T$2:$T$39,AM8)+COUNTIF($AB$2:$AB$34,AM8)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AM8" s="33" t="s">
         <v>28</v>
       </c>
       <c r="AN8" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.19642857142857142</v>
       </c>
     </row>
@@ -16127,7 +16131,7 @@
         <v>34</v>
       </c>
       <c r="T9" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1 (Material)</v>
       </c>
       <c r="U9" s="39" t="str">
@@ -16180,14 +16184,14 @@
         <v>41</v>
       </c>
       <c r="AL9" s="23">
-        <f>COUNTIF($D$2:$D$37,AM9)+COUNTIF($L$2:$L$39,AM9)+COUNTIF($T$2:$T$39,AM9)+COUNTIF($AB$2:$AB$34,AM9)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AM9" s="33" t="s">
         <v>30</v>
       </c>
       <c r="AN9" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.19642857142857142</v>
       </c>
     </row>
@@ -16319,15 +16323,15 @@
         <v>2 (Ano, Material)</v>
       </c>
       <c r="M11" s="64" t="str">
-        <f t="shared" ref="M11" si="10">VLOOKUP(K11,$AG$1:$AJ$44,2,FALSE)</f>
+        <f t="shared" ref="M11" si="11">VLOOKUP(K11,$AG$1:$AJ$44,2,FALSE)</f>
         <v>Arco</v>
       </c>
       <c r="N11" s="64" t="str">
-        <f t="shared" ref="N11" si="11">VLOOKUP(K11,$AG$1:$AJ$44,3,FALSE)</f>
+        <f t="shared" ref="N11" si="12">VLOOKUP(K11,$AG$1:$AJ$44,3,FALSE)</f>
         <v>Antes de 1960</v>
       </c>
       <c r="O11" s="64" t="str">
-        <f t="shared" ref="O11" si="12">VLOOKUP(K11,$AG$1:$AJ$44,4,FALSE)</f>
+        <f t="shared" ref="O11" si="13">VLOOKUP(K11,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Alvenaria de Pedra</v>
       </c>
       <c r="Q11" s="66" t="s">
@@ -16360,7 +16364,7 @@
         <v>20</v>
       </c>
       <c r="AB11" s="33" t="str">
-        <f t="shared" ref="AB11:AB12" si="13">COUNTIF(AC11,$AC$9)+COUNTIF(AD11,$AD$9)+COUNTIF(AE11,$AE$9)&amp;" ("&amp; IF(AC11=$AC$9,"Estrutura, ","") &amp; IF(AD11=$AD$9,"Ano, ","") &amp;IF(AE11=$AE$9,"Material","") &amp; IF(OR(AC11=$AC$9,AD11=$AD$9,AE11=$AE$9),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="AB11:AB12" si="14">COUNTIF(AC11,$AC$9)+COUNTIF(AD11,$AD$9)+COUNTIF(AE11,$AE$9)&amp;" ("&amp; IF(AC11=$AC$9,"Estrutura, ","") &amp; IF(AD11=$AD$9,"Ano, ","") &amp;IF(AE11=$AE$9,"Material","") &amp; IF(OR(AC11=$AC$9,AD11=$AD$9,AE11=$AE$9),"","Nenhuma") &amp;")"</f>
         <v>1 (Material)</v>
       </c>
       <c r="AC11" s="39" t="str">
@@ -16432,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0 (Nenhuma)</v>
       </c>
       <c r="AC12" s="39" t="str">
@@ -16625,15 +16629,15 @@
       </c>
       <c r="AB14" s="36"/>
       <c r="AC14" s="38" t="str">
-        <f t="shared" ref="AC14:AC15" si="14">VLOOKUP(AA14,$AG$1:$AJ$44,2,FALSE)</f>
+        <f t="shared" ref="AC14:AC15" si="15">VLOOKUP(AA14,$AG$1:$AJ$44,2,FALSE)</f>
         <v>Vãos Multiplos</v>
       </c>
       <c r="AD14" s="38" t="str">
-        <f t="shared" ref="AD14:AD15" si="15">VLOOKUP(AA14,$AG$1:$AJ$44,3,FALSE)</f>
+        <f t="shared" ref="AD14:AD15" si="16">VLOOKUP(AA14,$AG$1:$AJ$44,3,FALSE)</f>
         <v>Antes de 1960</v>
       </c>
       <c r="AE14" s="38" t="str">
-        <f t="shared" ref="AE14:AE15" si="16">VLOOKUP(AA14,$AG$1:$AJ$44,4,FALSE)</f>
+        <f t="shared" ref="AE14:AE15" si="17">VLOOKUP(AA14,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Aço</v>
       </c>
       <c r="AG14" s="23">
@@ -16698,15 +16702,15 @@
         <v>1 (Estrutura, )</v>
       </c>
       <c r="AC15" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Vãos Multiplos</v>
       </c>
       <c r="AD15" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1983-2010</v>
       </c>
       <c r="AE15" s="39" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Betão Armado</v>
       </c>
       <c r="AG15" s="23">
@@ -16875,15 +16879,15 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="AC17" s="38" t="str">
-        <f t="shared" ref="AC17:AC19" si="17">VLOOKUP(AA17,$AG$1:$AJ$44,2,FALSE)</f>
+        <f t="shared" ref="AC17:AC19" si="18">VLOOKUP(AA17,$AG$1:$AJ$44,2,FALSE)</f>
         <v>Vãos Multiplos</v>
       </c>
       <c r="AD17" s="38" t="str">
-        <f t="shared" ref="AD17:AD19" si="18">VLOOKUP(AA17,$AG$1:$AJ$44,3,FALSE)</f>
+        <f t="shared" ref="AD17:AD19" si="19">VLOOKUP(AA17,$AG$1:$AJ$44,3,FALSE)</f>
         <v>Depois de 2010</v>
       </c>
       <c r="AE17" s="38" t="str">
-        <f t="shared" ref="AE17:AE19" si="19">VLOOKUP(AA17,$AG$1:$AJ$44,4,FALSE)</f>
+        <f t="shared" ref="AE17:AE19" si="20">VLOOKUP(AA17,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
       <c r="AG17" s="23">
@@ -16947,15 +16951,15 @@
         <v>2 (Estrutura, Material)</v>
       </c>
       <c r="AC18" s="39" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Vãos Multiplos</v>
       </c>
       <c r="AD18" s="39" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1983-2010</v>
       </c>
       <c r="AE18" s="39" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Betão Armado</v>
       </c>
       <c r="AG18" s="23">
@@ -17057,15 +17061,15 @@
         <v>1 (Material)</v>
       </c>
       <c r="AC19" s="39" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Pórtico</v>
       </c>
       <c r="AD19" s="39" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1983-2010</v>
       </c>
       <c r="AE19" s="39" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Betão Armado</v>
       </c>
       <c r="AG19" s="23">
@@ -17228,15 +17232,15 @@
       </c>
       <c r="AB21" s="36"/>
       <c r="AC21" s="38" t="str">
-        <f t="shared" ref="AC21" si="20">VLOOKUP(AA21,$AG$1:$AJ$44,2,FALSE)</f>
+        <f t="shared" ref="AC21" si="21">VLOOKUP(AA21,$AG$1:$AJ$44,2,FALSE)</f>
         <v>Vãos Multiplos</v>
       </c>
       <c r="AD21" s="38" t="str">
-        <f t="shared" ref="AD21" si="21">VLOOKUP(AA21,$AG$1:$AJ$44,3,FALSE)</f>
+        <f t="shared" ref="AD21" si="22">VLOOKUP(AA21,$AG$1:$AJ$44,3,FALSE)</f>
         <v>Depois de 2010</v>
       </c>
       <c r="AE21" s="38" t="str">
-        <f t="shared" ref="AE21" si="22">VLOOKUP(AA21,$AG$1:$AJ$44,4,FALSE)</f>
+        <f t="shared" ref="AE21" si="23">VLOOKUP(AA21,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Outros</v>
       </c>
       <c r="AG21" s="23">
@@ -17316,15 +17320,15 @@
         <v>1 (Estrutura, )</v>
       </c>
       <c r="AC22" s="39" t="str">
-        <f t="shared" ref="AC22" si="23">VLOOKUP(AA22,$AG$1:$AJ$44,2,FALSE)</f>
+        <f t="shared" ref="AC22" si="24">VLOOKUP(AA22,$AG$1:$AJ$44,2,FALSE)</f>
         <v>Vãos Multiplos</v>
       </c>
       <c r="AD22" s="39" t="str">
-        <f t="shared" ref="AD22" si="24">VLOOKUP(AA22,$AG$1:$AJ$44,3,FALSE)</f>
+        <f t="shared" ref="AD22" si="25">VLOOKUP(AA22,$AG$1:$AJ$44,3,FALSE)</f>
         <v>1983-2010</v>
       </c>
       <c r="AE22" s="39" t="str">
-        <f t="shared" ref="AE22" si="25">VLOOKUP(AA22,$AG$1:$AJ$44,4,FALSE)</f>
+        <f t="shared" ref="AE22" si="26">VLOOKUP(AA22,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
       <c r="AG22" s="23">
@@ -17488,15 +17492,15 @@
       </c>
       <c r="AB24" s="36"/>
       <c r="AC24" s="38" t="str">
-        <f t="shared" ref="AC24:AC25" si="26">VLOOKUP(AA24,$AG$1:$AJ$44,2,FALSE)</f>
+        <f t="shared" ref="AC24:AC25" si="27">VLOOKUP(AA24,$AG$1:$AJ$44,2,FALSE)</f>
         <v>Vãos Multiplos</v>
       </c>
       <c r="AD24" s="38" t="str">
-        <f t="shared" ref="AD24:AD25" si="27">VLOOKUP(AA24,$AG$1:$AJ$44,3,FALSE)</f>
+        <f t="shared" ref="AD24:AD25" si="28">VLOOKUP(AA24,$AG$1:$AJ$44,3,FALSE)</f>
         <v>1983-2010</v>
       </c>
       <c r="AE24" s="38" t="str">
-        <f t="shared" ref="AE24:AE25" si="28">VLOOKUP(AA24,$AG$1:$AJ$44,4,FALSE)</f>
+        <f t="shared" ref="AE24:AE25" si="29">VLOOKUP(AA24,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Alvenaria de Pedra</v>
       </c>
       <c r="AG24" s="23">
@@ -17550,26 +17554,26 @@
       <c r="W25" s="37"/>
       <c r="Y25" s="70"/>
       <c r="Z25" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="23">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AB25" s="33" t="str">
         <f>COUNTIF(AC25,AC24)+COUNTIF(AD25,AD24)+COUNTIF(AE25,AE24)&amp;" ("&amp; IF(AC25=AC24,"Estrutura, ","") &amp; IF(AD25=AD24,"Ano, ","") &amp;IF(AE25=AE24,"Material","") &amp; IF(OR(AC25=AC24,AD25=AD24,AE25=AE24),"","Nenhuma") &amp;")"</f>
-        <v>2 (Estrutura, Ano, )</v>
+        <v>1 (Material)</v>
       </c>
       <c r="AC25" s="39" t="str">
-        <f t="shared" si="26"/>
-        <v>Vãos Multiplos</v>
+        <f t="shared" si="27"/>
+        <v>Outro</v>
       </c>
       <c r="AD25" s="39" t="str">
-        <f t="shared" si="27"/>
-        <v>1983-2010</v>
+        <f t="shared" si="28"/>
+        <v>Antes de 1960</v>
       </c>
       <c r="AE25" s="39" t="str">
-        <f t="shared" si="28"/>
-        <v>Betão Armado</v>
+        <f t="shared" si="29"/>
+        <v>Alvenaria de Pedra</v>
       </c>
       <c r="AG25" s="23">
         <v>23</v>
@@ -18065,7 +18069,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Y14:Y15"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="I7:I8"/>
@@ -18080,7 +18083,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="Q17:Q20"/>
     <mergeCell ref="Q30:Q33"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="Q22:Q24"/>
@@ -18093,6 +18095,8 @@
     <mergeCell ref="Q11:Q15"/>
     <mergeCell ref="Y2:Y7"/>
     <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Q17:Q20"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18107,9 +18111,9 @@
   <sheetPr codeName="Folha7"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B37" sqref="B37"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Modelos/Tentativa 1/Tentativa 1.xlsx
+++ b/Modelos/Tentativa 1/Tentativa 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F995B5-00AF-4E95-8DA9-1EA80E2E02A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D301024-E2F6-4303-99A6-28924887E95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -1876,7 +1876,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -2222,10 +2222,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A6930E-4176-4367-AF15-7C01F09A0CE1}">
   <sheetPr codeName="Folha12"/>
-  <dimension ref="S1:T44"/>
+  <dimension ref="S1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T44"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2233,7 +2233,7 @@
     <col min="19" max="20" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S1" s="32" t="s">
         <v>54</v>
       </c>
@@ -2241,15 +2241,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S2" s="23">
         <v>0</v>
       </c>
       <c r="T2" s="23">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="3" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="V2">
+        <f>COUNTIF(T2:T44,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S3" s="23">
         <v>1</v>
       </c>
@@ -2257,7 +2261,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S4" s="23">
         <v>2</v>
       </c>
@@ -2265,7 +2269,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S5" s="23">
         <v>3</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S6" s="23">
         <v>4</v>
       </c>
@@ -2281,7 +2285,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S7" s="23">
         <v>5</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S8" s="23">
         <v>6</v>
       </c>
@@ -2297,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S9" s="23">
         <v>7</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S10" s="23">
         <v>8</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S11" s="23">
         <v>9</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S12" s="23">
         <v>10</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S13" s="23">
         <v>11</v>
       </c>
@@ -2337,7 +2341,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S14" s="23">
         <v>12</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="15" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S15" s="23">
         <v>13</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="19:22" x14ac:dyDescent="0.35">
       <c r="S16" s="23">
         <v>14</v>
       </c>
@@ -8833,10 +8837,10 @@
   <dimension ref="A1:AV46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK38" sqref="AK38"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B2:AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15220,9 +15224,9 @@
   <sheetPr codeName="Folha6"/>
   <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL10" sqref="AL10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18111,9 +18115,9 @@
   <sheetPr codeName="Folha7"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+      <selection pane="topRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Modelos/Tentativa 1/Tentativa 1.xlsx
+++ b/Modelos/Tentativa 1/Tentativa 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D301024-E2F6-4303-99A6-28924887E95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067FBB63-A013-479E-90F5-347239060160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -788,9 +788,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -817,6 +814,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1876,7 +1876,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -2224,7 +2224,7 @@
   <sheetPr codeName="Folha12"/>
   <dimension ref="S1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J42" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -15224,7 +15224,7 @@
   <sheetPr codeName="Folha6"/>
   <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
@@ -15335,14 +15335,14 @@
       <c r="AJ1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="68" t="s">
+      <c r="AL1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
     </row>
     <row r="2" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="34">
@@ -15392,7 +15392,7 @@
         <f>VLOOKUP(K2,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Aço</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="68" t="s">
         <v>57</v>
       </c>
       <c r="R2" s="34">
@@ -15470,7 +15470,7 @@
       </c>
     </row>
     <row r="3" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="72"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="23">
         <v>1</v>
       </c>
@@ -15516,7 +15516,7 @@
         <f>VLOOKUP(K3,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="Q3" s="70"/>
+      <c r="Q3" s="69"/>
       <c r="R3" s="23">
         <v>1</v>
       </c>
@@ -15587,7 +15587,7 @@
       </c>
     </row>
     <row r="4" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="72"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="23">
         <v>1</v>
       </c>
@@ -15687,7 +15687,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="23">
         <v>1</v>
       </c>
@@ -15803,7 +15803,7 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="72"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="23">
         <v>1</v>
       </c>
@@ -15903,7 +15903,7 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="73"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="23">
         <v>1</v>
       </c>
@@ -15926,7 +15926,7 @@
         <f t="shared" si="2"/>
         <v>Betão Armado</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="68" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="34">
@@ -16025,7 +16025,7 @@
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
-      <c r="I8" s="70"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="23">
         <v>1</v>
       </c>
@@ -16099,7 +16099,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="73" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="45">
@@ -16150,7 +16150,7 @@
         <f>VLOOKUP(S9,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="Y9" s="71" t="s">
+      <c r="Y9" s="70" t="s">
         <v>63</v>
       </c>
       <c r="Z9" s="34">
@@ -16200,7 +16200,7 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="23">
         <v>1</v>
       </c>
@@ -16223,7 +16223,7 @@
         <f>VLOOKUP(C10,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Alvenaria de Pedra</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J10" s="34">
@@ -16251,7 +16251,7 @@
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
-      <c r="Y10" s="72"/>
+      <c r="Y10" s="71"/>
       <c r="Z10" s="12">
         <v>21</v>
       </c>
@@ -16292,7 +16292,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="23">
         <v>1</v>
       </c>
@@ -16315,7 +16315,7 @@
         <f>VLOOKUP(C11,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="23">
         <v>1</v>
       </c>
@@ -16360,7 +16360,7 @@
         <f>VLOOKUP(S11,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="Y11" s="72"/>
+      <c r="Y11" s="71"/>
       <c r="Z11" s="23">
         <v>2</v>
       </c>
@@ -16432,7 +16432,7 @@
         <f>VLOOKUP(S12,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="Y12" s="73"/>
+      <c r="Y12" s="72"/>
       <c r="Z12" s="23">
         <v>1</v>
       </c>
@@ -16469,7 +16469,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="68" t="s">
         <v>66</v>
       </c>
       <c r="B13" s="34">
@@ -16491,7 +16491,7 @@
         <f>VLOOKUP(C13,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="68" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="45">
@@ -16553,7 +16553,7 @@
       </c>
     </row>
     <row r="14" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="70"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="23">
         <v>1</v>
       </c>
@@ -16576,7 +16576,7 @@
         <f>VLOOKUP(C14,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="I14" s="70"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="23">
         <v>1</v>
       </c>
@@ -16622,7 +16622,7 @@
         <f>VLOOKUP(S14,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="Y14" s="69" t="s">
+      <c r="Y14" s="68" t="s">
         <v>69</v>
       </c>
       <c r="Z14" s="34">
@@ -16694,7 +16694,7 @@
         <f>VLOOKUP(S15,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="Y15" s="70"/>
+      <c r="Y15" s="69"/>
       <c r="Z15" s="23">
         <v>3</v>
       </c>
@@ -16731,7 +16731,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="68" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="45">
@@ -16753,7 +16753,7 @@
         <f>VLOOKUP(C16,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="68" t="s">
         <v>67</v>
       </c>
       <c r="J16" s="45">
@@ -16798,7 +16798,7 @@
       </c>
     </row>
     <row r="17" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="70"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="23">
         <v>2</v>
       </c>
@@ -16821,7 +16821,7 @@
         <f>VLOOKUP(C17,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="I17" s="70"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="23">
         <v>1</v>
       </c>
@@ -16980,7 +16980,7 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="76" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="34">
@@ -17090,7 +17090,7 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="77"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="23">
         <v>1</v>
       </c>
@@ -17173,7 +17173,7 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="77"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="23">
         <v>1</v>
       </c>
@@ -17225,7 +17225,7 @@
       <c r="U21" s="37"/>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
-      <c r="Y21" s="69" t="s">
+      <c r="Y21" s="68" t="s">
         <v>78</v>
       </c>
       <c r="Z21" s="34">
@@ -17312,7 +17312,7 @@
         <f>VLOOKUP(S22,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="Y22" s="70"/>
+      <c r="Y22" s="69"/>
       <c r="Z22" s="23">
         <v>2</v>
       </c>
@@ -17349,7 +17349,7 @@
       </c>
     </row>
     <row r="23" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="68" t="s">
         <v>76</v>
       </c>
       <c r="B23" s="45">
@@ -17414,7 +17414,7 @@
       </c>
     </row>
     <row r="24" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="70"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="23">
         <v>1</v>
       </c>
@@ -17437,7 +17437,7 @@
         <f>VLOOKUP(C24,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="68" t="s">
         <v>75</v>
       </c>
       <c r="J24" s="34">
@@ -17485,7 +17485,7 @@
         <f>VLOOKUP(S24,$AG$1:$AJ$44,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="Y24" s="69" t="s">
+      <c r="Y24" s="68" t="s">
         <v>81</v>
       </c>
       <c r="Z24" s="34">
@@ -17527,7 +17527,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
-      <c r="I25" s="70"/>
+      <c r="I25" s="69"/>
       <c r="J25" s="12">
         <v>12</v>
       </c>
@@ -17556,7 +17556,7 @@
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
-      <c r="Y25" s="70"/>
+      <c r="Y25" s="69"/>
       <c r="Z25" s="23">
         <v>1</v>
       </c>
@@ -17593,7 +17593,7 @@
       </c>
     </row>
     <row r="26" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="68" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="34">
@@ -17651,7 +17651,7 @@
       </c>
     </row>
     <row r="27" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="70"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="12">
         <v>1</v>
       </c>
@@ -18073,6 +18073,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="Q30:Q33"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="Q26:Q28"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q5:Q9"/>
+    <mergeCell ref="Q11:Q15"/>
+    <mergeCell ref="Y2:Y7"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Q17:Q20"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="I7:I8"/>
@@ -18087,20 +18101,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="Q30:Q33"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="Q26:Q28"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q5:Q9"/>
-    <mergeCell ref="Q11:Q15"/>
-    <mergeCell ref="Y2:Y7"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Q17:Q20"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
